--- a/Template/Example/Допсоглашения.xlsx
+++ b/Template/Example/Допсоглашения.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Содержание</t>
   </si>
@@ -140,15 +140,6 @@
     <t>10-491</t>
   </si>
   <si>
-    <t>Диагностика 2</t>
-  </si>
-  <si>
-    <t>18.12.2018 15:35:28</t>
-  </si>
-  <si>
-    <t>11-873</t>
-  </si>
-  <si>
     <t>Журнал регистрации</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>04.06.2021</t>
   </si>
   <si>
-    <t>Приложение не может быть импортировано. Ошибка при создании тела документа "Файл" C:\Users\starkov_vv\Desktop\DocumentBody\Lorem.docx.</t>
-  </si>
-  <si>
-    <t>Приложение не может быть импортировано. Ошибка при создании тела документа "Файл" C:\Users\starkov_vv\Desktop\DocumentBody\Доп.docx.</t>
-  </si>
-  <si>
     <t>Наша организация</t>
   </si>
   <si>
@@ -195,6 +180,12 @@
   </si>
   <si>
     <t>Не найден контрагент "5".</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>Приложение не может быть импортировано. Не найден ведущий документ с реквизитами "Дата документа" 2010-08-20T00:00:00.0000000+04:00, "Рег. №" 10-490.</t>
   </si>
 </sst>
 </file>
@@ -329,11 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -403,18 +391,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
@@ -457,9 +433,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -811,310 +784,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="39" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>40452</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7">
+        <v>40409</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="7">
+        <v>40452</v>
+      </c>
+      <c r="L2" s="23">
+        <v>40482</v>
+      </c>
+      <c r="M2" s="24">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="4">
+        <v>5</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>40452</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8">
-        <v>40409</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="8">
-        <v>40452</v>
-      </c>
-      <c r="L2" s="28">
-        <v>40482</v>
-      </c>
-      <c r="M2" s="29">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="38">
-        <v>5</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>40453</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8">
-        <v>40861</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="8">
-        <v>40452</v>
-      </c>
-      <c r="L3" s="28">
-        <v>40482</v>
-      </c>
-      <c r="M3" s="29">
-        <v>1001</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="38">
-        <v>7</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="L7" s="13"/>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="L7" s="12"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1140,79 +1091,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1226,322 +1177,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="39" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="30" t="s">
+      <c r="S1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="W1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
         <v>33</v>
       </c>
       <c r="Y1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>65</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>40452</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>40409</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="7">
+        <v>40452</v>
+      </c>
+      <c r="L2" s="23">
+        <v>40482</v>
+      </c>
+      <c r="M2" s="24">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="4">
+        <v>5</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="8">
-        <v>40452</v>
-      </c>
-      <c r="L2" s="28">
-        <v>40482</v>
-      </c>
-      <c r="M2" s="29">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="6">
-        <v>5</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Example/Допсоглашения.xlsx
+++ b/Template/Example/Допсоглашения.xlsx
@@ -1,205 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Приложения" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Ошибки" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Доп.Соглашения" sheetId="5" r:id="rId3"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$S$7</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="152511" refMode="R1C1"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
+    <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="152511" refMode="R1C1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
-  <x:si>
-    <x:t>Содержание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Действует с</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Действует по</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Состояние</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Примечание</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вид документа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Контрагент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сумма</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Валюта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>№ договора</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата договора</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ответственный</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подписал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не найден файл</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не найден контрагент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не найден ответственный</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Строка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Вид</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Суть</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не верное состояние</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не найдена валюта</x:t>
-  </x:si>
-  <x:si>
-    <x:t>не верная дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>№ доп. соглашения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата доп. соглашения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Журнал регистрации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подробности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наша организация</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подразделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Файл</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Регистрация</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Digital River GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дополнительное соглашение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Диагностика 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Наша</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Служба генерального директора</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\ImportData\line.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Евро</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Исполнен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Оплачено</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Зарегистрирован</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07.02.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Договор" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рег. №</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата регистрации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Приложение к документу</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input string was not in a correct format.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index was outside the bounds of the array.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Официальный документ" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.
-Приложение не может быть импортировано. Не найден журнал регистрации по ИД "" </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Официальный документ" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.
-Приложение не может быть импортировано. Не найден журнал регистрации по ИД "" </x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+  <si>
+    <t>Содержание</t>
+  </si>
+  <si>
+    <t>Действует с</t>
+  </si>
+  <si>
+    <t>Действует по</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Вид документа</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>№ договора</t>
+  </si>
+  <si>
+    <t>Дата договора</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>Подписал</t>
+  </si>
+  <si>
+    <t>не найден файл</t>
+  </si>
+  <si>
+    <t>не найден контрагент</t>
+  </si>
+  <si>
+    <t>не найден ответственный</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>Вид</t>
+  </si>
+  <si>
+    <t>Суть</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>не верное состояние</t>
+  </si>
+  <si>
+    <t>не найдена валюта</t>
+  </si>
+  <si>
+    <t>не верная дата</t>
+  </si>
+  <si>
+    <t>№ доп. соглашения</t>
+  </si>
+  <si>
+    <t>Дата доп. соглашения</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Журнал регистрации</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Подробности</t>
+  </si>
+  <si>
+    <t>Наша организация</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>10-491</t>
+  </si>
+  <si>
+    <t>Digital River GmbH</t>
+  </si>
+  <si>
+    <t>Дополнительное соглашение</t>
+  </si>
+  <si>
+    <t>Диагностика 1</t>
+  </si>
+  <si>
+    <t>Наша</t>
+  </si>
+  <si>
+    <t>Служба генерального директора</t>
+  </si>
+  <si>
+    <t>C:\ImportData\line.txt</t>
+  </si>
+  <si>
+    <t>Евро</t>
+  </si>
+  <si>
+    <t>Исполнен</t>
+  </si>
+  <si>
+    <t>Оплачено</t>
+  </si>
+  <si>
+    <t>Зарегистрирован</t>
+  </si>
+  <si>
+    <t>Загружен частично</t>
+  </si>
+  <si>
+    <t>07.02.2023</t>
+  </si>
+  <si>
+    <t>Найдено несколько записей типа сущности "Договор" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -340,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -392,9 +362,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -452,28 +419,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -827,344 +772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:V7"/>
-  <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <x:selection activeCell="Q2" sqref="Q2:S2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <x:col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <x:col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="19" max="19" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="20" max="16384" width="9.140625" style="5"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="35" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B1" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C1" s="21" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1" s="21" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E1" s="35" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F1" s="22" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="21" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1" s="21" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I1" s="21" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J1" s="36" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K1" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L1" s="20" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M1" s="20" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N1" s="20" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O1" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P1" s="20" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q1" s="17" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R1" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="S1" s="17" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="T1"/>
-    </x:row>
-    <x:row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A2" s="31"/>
-      <x:c r="B2" s="37"/>
-      <x:c r="C2" s="19" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D2" s="26">
-        <x:v>40410</x:v>
-      </x:c>
-      <x:c r="E2" s="38"/>
-      <x:c r="F2" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H2" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I2" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J2" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K2" s="37"/>
-      <x:c r="L2" s="39"/>
-      <x:c r="M2" s="40"/>
-      <x:c r="N2" s="31"/>
-      <x:c r="O2" s="31"/>
-      <x:c r="P2" s="2"/>
-      <x:c r="Q2" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="R2" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="S2" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="T2"/>
-      <x:c r="U2"/>
-      <x:c r="V2"/>
-    </x:row>
-    <x:row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <x:c r="A3" s="31"/>
-      <x:c r="B3" s="37"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="26"/>
-      <x:c r="E3" s="38"/>
-      <x:c r="F3" s="3"/>
-      <x:c r="G3" s="3"/>
-      <x:c r="H3" s="3"/>
-      <x:c r="I3" s="3"/>
-      <x:c r="J3" s="4"/>
-      <x:c r="K3" s="2"/>
-      <x:c r="L3" s="2"/>
-      <x:c r="M3" s="2"/>
-      <x:c r="N3" s="2"/>
-      <x:c r="O3" s="2"/>
-      <x:c r="P3" s="18"/>
-      <x:c r="Q3" s="18"/>
-      <x:c r="R3" s="18"/>
-      <x:c r="S3" s="18"/>
-    </x:row>
-    <x:row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <x:c r="A4" s="31"/>
-      <x:c r="B4" s="37"/>
-      <x:c r="C4" s="19"/>
-      <x:c r="D4" s="26"/>
-      <x:c r="E4" s="38"/>
-      <x:c r="F4" s="3"/>
-      <x:c r="G4" s="3"/>
-      <x:c r="H4" s="3"/>
-      <x:c r="I4" s="3"/>
-      <x:c r="J4" s="4"/>
-      <x:c r="K4" s="2"/>
-      <x:c r="L4" s="2"/>
-      <x:c r="M4" s="2"/>
-      <x:c r="N4" s="2"/>
-      <x:c r="O4" s="2"/>
-      <x:c r="P4" s="18"/>
-      <x:c r="Q4" s="18"/>
-      <x:c r="R4" s="18"/>
-      <x:c r="S4" s="18"/>
-    </x:row>
-    <x:row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <x:c r="A5" s="31"/>
-      <x:c r="B5" s="37"/>
-      <x:c r="C5" s="19"/>
-      <x:c r="D5" s="26"/>
-      <x:c r="E5" s="38"/>
-      <x:c r="F5" s="3"/>
-      <x:c r="G5" s="3"/>
-      <x:c r="H5" s="3"/>
-      <x:c r="I5" s="3"/>
-      <x:c r="J5" s="4"/>
-      <x:c r="K5" s="2"/>
-      <x:c r="L5" s="2"/>
-      <x:c r="M5" s="2"/>
-      <x:c r="N5" s="2"/>
-      <x:c r="O5" s="2"/>
-      <x:c r="P5" s="18"/>
-      <x:c r="Q5" s="18"/>
-      <x:c r="R5" s="18"/>
-      <x:c r="S5" s="18"/>
-    </x:row>
-    <x:row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <x:c r="A6" s="31"/>
-      <x:c r="B6" s="37"/>
-      <x:c r="C6" s="19"/>
-      <x:c r="D6" s="26"/>
-      <x:c r="E6" s="38"/>
-      <x:c r="F6" s="3"/>
-      <x:c r="G6" s="3"/>
-      <x:c r="H6" s="3"/>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="4"/>
-      <x:c r="K6" s="2"/>
-      <x:c r="L6" s="2"/>
-      <x:c r="M6" s="2"/>
-      <x:c r="N6" s="2"/>
-      <x:c r="O6" s="2"/>
-      <x:c r="P6" s="18"/>
-      <x:c r="Q6" s="18"/>
-      <x:c r="R6" s="18"/>
-      <x:c r="S6" s="18"/>
-    </x:row>
-    <x:row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <x:c r="A7" s="6"/>
-      <x:c r="L7" s="9"/>
-    </x:row>
-  </x:sheetData>
-  <x:sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <x:autoFilter ref="A1:S7"/>
-  <x:hyperlinks>
-    <x:hyperlink ref="J2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
-  </x:hyperlinks>
-  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1193,64 +805,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="U1" t="s">
@@ -1267,16 +879,16 @@
       <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>40452</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>40410</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1294,13 +906,13 @@
       <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>40452</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="27">
         <v>40482</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="29">
         <v>1000</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1317,10 +929,10 @@
       <c r="S2" s="2">
         <v>5</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="V2" t="s">
@@ -1333,244 +945,244 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="31"/>
+      <c r="S3" s="30"/>
       <c r="T3" s="2"/>
       <c r="U3"/>
       <c r="V3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="31"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="2"/>
       <c r="U4"/>
       <c r="V4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="31"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="L7" s="9"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T9" s="32"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T10" s="32"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T13" s="32"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T14" s="32"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T15" s="32"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
     </row>
     <row r="17" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
     </row>
     <row r="18" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T18" s="32"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
     </row>
     <row r="19" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
     </row>
     <row r="21" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T21" s="34"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="20:25" x14ac:dyDescent="0.2">
-      <c r="T22" s="34"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1579,4 +1191,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Template/Example/Допсоглашения.xlsx
+++ b/Template/Example/Допсоглашения.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
     <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Содержание</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Найдено несколько записей типа сущности "Договор" с именем "Договор №10-491 от 20.08.2010 с Digital River GmbH "Диагностика"". Проверьте, что выбрана верная запись.</t>
+  </si>
+  <si>
+    <t>Дело</t>
+  </si>
+  <si>
+    <t>Дата помещения</t>
+  </si>
+  <si>
+    <t>123. Тест</t>
   </si>
 </sst>
 </file>
@@ -310,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -419,6 +428,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -773,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -800,11 +820,11 @@
     <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
@@ -865,17 +885,23 @@
       <c r="T1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>5</v>
       </c>
@@ -933,17 +959,23 @@
         <v>44</v>
       </c>
       <c r="U2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="36">
+        <v>40410</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="25"/>
       <c r="C3" s="18"/>
@@ -964,10 +996,12 @@
       <c r="R3" s="2"/>
       <c r="S3" s="30"/>
       <c r="T3" s="2"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="25"/>
       <c r="C4" s="18"/>
@@ -988,10 +1022,12 @@
       <c r="R4" s="2"/>
       <c r="S4" s="30"/>
       <c r="T4" s="2"/>
-      <c r="U4"/>
-      <c r="V4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="25"/>
       <c r="C5" s="18"/>
@@ -1012,8 +1048,10 @@
       <c r="R5" s="2"/>
       <c r="S5" s="30"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="25"/>
       <c r="C6" s="18"/>
@@ -1034,18 +1072,22 @@
       <c r="R6" s="2"/>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="L7" s="9"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1066,123 +1108,153 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
       <c r="W8" s="32"/>
       <c r="X8" s="32"/>
       <c r="Y8" s="32"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
       <c r="W11" s="32"/>
       <c r="X11" s="32"/>
       <c r="Y11" s="32"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
       <c r="Y13" s="32"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T14" s="31"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
       <c r="Y15" s="32"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="32"/>
       <c r="X16" s="32"/>
       <c r="Y16" s="32"/>
-    </row>
-    <row r="17" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+    </row>
+    <row r="17" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
       <c r="W17" s="32"/>
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
-    </row>
-    <row r="18" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
       <c r="W18" s="32"/>
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
-    </row>
-    <row r="19" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+    </row>
+    <row r="19" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
-    </row>
-    <row r="20" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+    </row>
+    <row r="20" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
-    </row>
-    <row r="21" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+    </row>
+    <row r="21" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T21" s="33"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
-    </row>
-    <row r="22" spans="20:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+    </row>
+    <row r="22" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T22" s="33"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
